--- a/pairix_index_spec.xlsx
+++ b/pairix_index_spec.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4C9F5E84-2D7F-FC4D-906B-1BE369AFA66F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D0A1CDDF-0CC1-0F41-A0E3-E490E25CE83E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="680" windowWidth="29360" windowHeight="19500" xr2:uid="{CC2BC1DF-8486-3343-B925-80F495AC5FD6}"/>
+    <workbookView xWindow="7200" yWindow="11720" windowWidth="29360" windowHeight="19500" xr2:uid="{CC2BC1DF-8486-3343-B925-80F495AC5FD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$37</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1021,8 +1021,8 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1766,12 +1766,12 @@
     <mergeCell ref="D26:D36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="50" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="35" min="1" max="10" man="1"/>
+    <brk id="35" max="11" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="10" max="35" man="1"/>
+    <brk id="10" max="36" man="1"/>
   </colBreaks>
 </worksheet>
 </file>